--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104458.4812267241</v>
+        <v>104458.4812267242</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3786586.072564904</v>
+        <v>3786586.072564903</v>
       </c>
     </row>
     <row r="11">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>38.5114503410384</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="S11" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>49.91683633819803</v>
       </c>
       <c r="U11" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>35.57149708268047</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.27262526472699</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>52.85678959655596</v>
-      </c>
-      <c r="F12" t="n">
-        <v>52.85678959655596</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>25.28363501191949</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>21.27262526472699</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>35.57149708268047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>35.57149708268047</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1689,64 +1689,64 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>46.55626027664648</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>46.55626027664648</v>
-      </c>
-      <c r="T15" t="n">
+      <c r="W15" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="F17" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="G17" t="n">
-        <v>52.85678959655596</v>
+        <v>49.91683633819803</v>
       </c>
       <c r="H17" t="n">
-        <v>35.57149708268047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>38.5114503410384</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>46.55626027664648</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>52.85678959655596</v>
+        <v>4.611178064186485</v>
       </c>
       <c r="I18" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>41.94508221245999</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>23.42693911448706</v>
       </c>
       <c r="S20" t="n">
-        <v>23.42693911448706</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="T20" t="n">
         <v>64.53649527860384</v>
@@ -2138,7 +2138,7 @@
         <v>64.53649527860384</v>
       </c>
       <c r="V20" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>64.53649527860384</v>
+        <v>56.84374504139422</v>
       </c>
       <c r="V21" t="n">
         <v>64.53649527860384</v>
       </c>
       <c r="W21" t="n">
-        <v>56.84374504139423</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>23.42693911448706</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="F23" t="n">
         <v>64.53649527860384</v>
@@ -2333,7 +2333,7 @@
         <v>64.53649527860384</v>
       </c>
       <c r="H23" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.89866282893423</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>41.94508221245999</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>56.84374504139422</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>64.53649527860384</v>
       </c>
       <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>64.53649527860384</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>23.42693911448707</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>64.53649527860384</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="Y26" t="n">
         <v>64.53649527860384</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>64.53649527860384</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>23.42693911448706</v>
       </c>
     </row>
     <row r="27">
@@ -2631,76 +2631,76 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>56.84374504139423</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>64.53649527860384</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>31.56011002947474</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>25.28363501191949</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>64.53649527860384</v>
       </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="Y27" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2792,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>23.42693911448706</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="F29" t="n">
         <v>64.53649527860384</v>
       </c>
       <c r="G29" t="n">
-        <v>23.42693911448707</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,17 +2868,17 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>64.53649527860384</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>56.84374504139423</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>56.84374504139422</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="W30" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3029,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>16.9592866481908</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="F32" t="n">
         <v>64.53649527860384</v>
       </c>
       <c r="G32" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>6.467652466296272</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>23.42693911448706</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3105,76 +3105,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>56.84374504139422</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>64.53649527860384</v>
-      </c>
-      <c r="F33" t="n">
-        <v>64.53649527860384</v>
-      </c>
-      <c r="G33" t="n">
-        <v>64.53649527860384</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>56.84374504139422</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>35.57149708268048</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="F35" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>35.57149708268047</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3345,73 +3345,73 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
       <c r="T36" t="n">
-        <v>46.55626027664648</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>46.55626027664647</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3503,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>52.85678959655596</v>
+      </c>
+      <c r="D38" t="n">
+        <v>52.85678959655596</v>
+      </c>
+      <c r="E38" t="n">
         <v>35.57149708268047</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>46.55626027664648</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="E39" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="F39" t="n">
-        <v>46.55626027664647</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>35.57149708268047</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.85678959655596</v>
+        <v>35.57149708268048</v>
       </c>
       <c r="T41" t="n">
         <v>52.85678959655596</v>
@@ -3797,7 +3797,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3819,67 +3819,67 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>46.55626027664648</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
       <c r="V42" t="n">
-        <v>46.55626027664648</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="W42" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>52.85678959655596</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>41.17708391450813</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>40.95259142598479</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>41.17708391450813</v>
       </c>
       <c r="S44" t="n">
-        <v>36.26877551189874</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>36.49326800042208</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>41.17708391450813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>41.17708391450813</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>41.17708391450813</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>41.17708391450813</v>
       </c>
       <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>10.98514049997926</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>41.17708391450813</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>10.98514049997926</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="C11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="D11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="E11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="F11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="G11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="H11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="I11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="J11" t="n">
         <v>4.228543167724476</v>
@@ -5063,28 +5063,28 @@
         <v>200.3314379882784</v>
       </c>
       <c r="R11" t="n">
-        <v>200.3314379882784</v>
+        <v>146.9407414261006</v>
       </c>
       <c r="S11" t="n">
-        <v>146.9407414261006</v>
+        <v>93.55004486392289</v>
       </c>
       <c r="T11" t="n">
-        <v>146.9407414261006</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="U11" t="n">
-        <v>93.55004486392289</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="V11" t="n">
-        <v>93.55004486392289</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="W11" t="n">
-        <v>40.15934830174515</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="X11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>164.4006328542577</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="C12" t="n">
-        <v>111.0099362920799</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="D12" t="n">
-        <v>111.0099362920799</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="E12" t="n">
         <v>57.61923972990221</v>
       </c>
       <c r="F12" t="n">
-        <v>4.228543167724476</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="G12" t="n">
-        <v>4.228543167724476</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="H12" t="n">
-        <v>4.228543167724476</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="I12" t="n">
         <v>4.228543167724476</v>
@@ -5121,19 +5121,19 @@
         <v>4.228543167724476</v>
       </c>
       <c r="K12" t="n">
-        <v>4.228543167724476</v>
+        <v>11.40944974131076</v>
       </c>
       <c r="L12" t="n">
-        <v>56.55676486831487</v>
+        <v>54.44249328445262</v>
       </c>
       <c r="M12" t="n">
-        <v>69.53902651042196</v>
+        <v>106.770714985043</v>
       </c>
       <c r="N12" t="n">
-        <v>121.8672482110124</v>
+        <v>159.0989366856334</v>
       </c>
       <c r="O12" t="n">
-        <v>174.1954699116028</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="P12" t="n">
         <v>211.4271583862238</v>
@@ -5142,28 +5142,28 @@
         <v>185.8881331216587</v>
       </c>
       <c r="R12" t="n">
-        <v>185.8881331216587</v>
+        <v>132.4974365594809</v>
       </c>
       <c r="S12" t="n">
-        <v>185.8881331216587</v>
+        <v>79.10673999730321</v>
       </c>
       <c r="T12" t="n">
-        <v>185.8881331216587</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="U12" t="n">
-        <v>185.8881331216587</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="V12" t="n">
-        <v>185.8881331216587</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="W12" t="n">
-        <v>185.8881331216587</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="X12" t="n">
-        <v>185.8881331216587</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.8881331216587</v>
+        <v>57.61923972990221</v>
       </c>
     </row>
     <row r="13">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="C14" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="D14" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="E14" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="F14" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="G14" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="H14" t="n">
         <v>4.228543167724476</v>
@@ -5309,19 +5309,19 @@
         <v>40.15934830174515</v>
       </c>
       <c r="U14" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="V14" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="W14" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="X14" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>111.0099362920799</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="C15" t="n">
-        <v>111.0099362920799</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="D15" t="n">
         <v>57.61923972990221</v>
@@ -5346,10 +5346,10 @@
         <v>57.61923972990221</v>
       </c>
       <c r="G15" t="n">
-        <v>4.228543167724476</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="H15" t="n">
-        <v>4.228543167724476</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="I15" t="n">
         <v>4.228543167724476</v>
@@ -5361,13 +5361,13 @@
         <v>11.40944974131076</v>
       </c>
       <c r="L15" t="n">
-        <v>17.21080480983156</v>
+        <v>63.73767144190116</v>
       </c>
       <c r="M15" t="n">
-        <v>69.53902651042196</v>
+        <v>116.0658931424915</v>
       </c>
       <c r="N15" t="n">
-        <v>121.8672482110124</v>
+        <v>168.394114843082</v>
       </c>
       <c r="O15" t="n">
         <v>174.1954699116028</v>
@@ -5379,28 +5379,28 @@
         <v>211.4271583862238</v>
       </c>
       <c r="R15" t="n">
-        <v>211.4271583862238</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="S15" t="n">
         <v>164.4006328542577</v>
       </c>
       <c r="T15" t="n">
-        <v>111.0099362920799</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="U15" t="n">
-        <v>111.0099362920799</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="V15" t="n">
         <v>111.0099362920799</v>
       </c>
       <c r="W15" t="n">
-        <v>111.0099362920799</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="X15" t="n">
-        <v>111.0099362920799</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="Y15" t="n">
-        <v>111.0099362920799</v>
+        <v>57.61923972990221</v>
       </c>
     </row>
     <row r="16">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>146.9407414261006</v>
+        <v>200.3314379882784</v>
       </c>
       <c r="C17" t="n">
-        <v>146.9407414261006</v>
+        <v>200.3314379882784</v>
       </c>
       <c r="D17" t="n">
-        <v>146.9407414261006</v>
+        <v>200.3314379882784</v>
       </c>
       <c r="E17" t="n">
         <v>146.9407414261006</v>
@@ -5504,13 +5504,13 @@
         <v>93.55004486392289</v>
       </c>
       <c r="G17" t="n">
-        <v>40.15934830174515</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="H17" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="I17" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766225</v>
       </c>
       <c r="J17" t="n">
         <v>4.228543167724476</v>
@@ -5537,28 +5537,28 @@
         <v>200.3314379882784</v>
       </c>
       <c r="R17" t="n">
-        <v>146.9407414261006</v>
+        <v>200.3314379882784</v>
       </c>
       <c r="S17" t="n">
-        <v>146.9407414261006</v>
+        <v>200.3314379882784</v>
       </c>
       <c r="T17" t="n">
-        <v>146.9407414261006</v>
+        <v>200.3314379882784</v>
       </c>
       <c r="U17" t="n">
-        <v>146.9407414261006</v>
+        <v>200.3314379882784</v>
       </c>
       <c r="V17" t="n">
-        <v>146.9407414261006</v>
+        <v>200.3314379882784</v>
       </c>
       <c r="W17" t="n">
-        <v>146.9407414261006</v>
+        <v>200.3314379882784</v>
       </c>
       <c r="X17" t="n">
-        <v>146.9407414261006</v>
+        <v>200.3314379882784</v>
       </c>
       <c r="Y17" t="n">
-        <v>146.9407414261006</v>
+        <v>200.3314379882784</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>211.4271583862238</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="C18" t="n">
-        <v>211.4271583862238</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="D18" t="n">
-        <v>211.4271583862238</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="E18" t="n">
-        <v>211.4271583862238</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="F18" t="n">
-        <v>164.4006328542577</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="G18" t="n">
-        <v>111.0099362920799</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="H18" t="n">
-        <v>57.61923972990221</v>
+        <v>99.98800964147796</v>
       </c>
       <c r="I18" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="J18" t="n">
         <v>4.228543167724476</v>
@@ -5616,28 +5616,28 @@
         <v>211.4271583862238</v>
       </c>
       <c r="R18" t="n">
-        <v>211.4271583862238</v>
+        <v>158.0364618240461</v>
       </c>
       <c r="S18" t="n">
-        <v>211.4271583862238</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="T18" t="n">
-        <v>211.4271583862238</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="U18" t="n">
-        <v>211.4271583862238</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="V18" t="n">
-        <v>211.4271583862238</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="W18" t="n">
-        <v>211.4271583862238</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="X18" t="n">
-        <v>211.4271583862238</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="Y18" t="n">
-        <v>211.4271583862238</v>
+        <v>104.6457652618683</v>
       </c>
     </row>
     <row r="19">
@@ -5774,16 +5774,16 @@
         <v>224.391631693297</v>
       </c>
       <c r="R20" t="n">
-        <v>224.391631693297</v>
+        <v>200.7280568301788</v>
       </c>
       <c r="S20" t="n">
-        <v>200.7280568301788</v>
+        <v>135.5396777608819</v>
       </c>
       <c r="T20" t="n">
-        <v>135.5396777608819</v>
+        <v>70.35129869158513</v>
       </c>
       <c r="U20" t="n">
-        <v>70.35129869158513</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="V20" t="n">
         <v>5.162919622288307</v>
@@ -5832,10 +5832,10 @@
         <v>5.162919622288307</v>
       </c>
       <c r="K21" t="n">
-        <v>12.34382619587459</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="L21" t="n">
-        <v>68.32198241812802</v>
+        <v>29.24090166234092</v>
       </c>
       <c r="M21" t="n">
         <v>93.13203198815872</v>
@@ -5859,16 +5859,16 @@
         <v>258.1459811144153</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9576020451185</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="U21" t="n">
-        <v>127.7692229758217</v>
+        <v>200.7280568301788</v>
       </c>
       <c r="V21" t="n">
-        <v>62.5808439065249</v>
+        <v>135.5396777608819</v>
       </c>
       <c r="W21" t="n">
-        <v>5.162919622288307</v>
+        <v>70.35129869158513</v>
       </c>
       <c r="X21" t="n">
         <v>5.162919622288307</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="C22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="D22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="E22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="F22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="G22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="H22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="I22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="J22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="K22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="L22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="M22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="N22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="O22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="P22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="R22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="S22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="T22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="U22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="V22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="W22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="X22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144153</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5972,13 @@
         <v>200.7280568301788</v>
       </c>
       <c r="E23" t="n">
-        <v>200.7280568301788</v>
+        <v>135.5396777608819</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5396777608819</v>
+        <v>70.35129869158513</v>
       </c>
       <c r="G23" t="n">
-        <v>70.35129869158513</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="H23" t="n">
         <v>5.162919622288307</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758217</v>
       </c>
       <c r="C24" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758217</v>
       </c>
       <c r="D24" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758217</v>
       </c>
       <c r="E24" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758217</v>
       </c>
       <c r="F24" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758217</v>
       </c>
       <c r="G24" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758217</v>
       </c>
       <c r="H24" t="n">
-        <v>5.162919622288307</v>
+        <v>62.5808439065249</v>
       </c>
       <c r="I24" t="n">
-        <v>5.162919622288307</v>
+        <v>47.53168953386406</v>
       </c>
       <c r="J24" t="n">
         <v>5.162919622288307</v>
@@ -6075,7 +6075,7 @@
         <v>68.32198241812802</v>
       </c>
       <c r="M24" t="n">
-        <v>132.2131127439458</v>
+        <v>93.13203198815872</v>
       </c>
       <c r="N24" t="n">
         <v>157.0231623139765</v>
@@ -6090,28 +6090,28 @@
         <v>258.1459811144153</v>
       </c>
       <c r="R24" t="n">
-        <v>200.7280568301788</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="S24" t="n">
-        <v>135.5396777608819</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="T24" t="n">
-        <v>70.35129869158513</v>
+        <v>192.9576020451185</v>
       </c>
       <c r="U24" t="n">
-        <v>5.162919622288307</v>
+        <v>192.9576020451185</v>
       </c>
       <c r="V24" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758217</v>
       </c>
       <c r="W24" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758217</v>
       </c>
       <c r="X24" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758217</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758217</v>
       </c>
     </row>
     <row r="25">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>200.7280568301788</v>
+        <v>28.82649448540656</v>
       </c>
       <c r="C26" t="n">
-        <v>200.7280568301788</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="D26" t="n">
-        <v>200.7280568301788</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="E26" t="n">
-        <v>135.5396777608819</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="F26" t="n">
-        <v>135.5396777608819</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="G26" t="n">
-        <v>70.35129869158513</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="H26" t="n">
-        <v>70.35129869158513</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="I26" t="n">
         <v>5.162919622288307</v>
@@ -6266,10 +6266,10 @@
         <v>224.391631693297</v>
       </c>
       <c r="X26" t="n">
-        <v>224.391631693297</v>
+        <v>159.2032526240002</v>
       </c>
       <c r="Y26" t="n">
-        <v>200.7280568301788</v>
+        <v>94.01487355470337</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.04181864195976</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="C27" t="n">
-        <v>37.04181864195976</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="D27" t="n">
-        <v>37.04181864195976</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="E27" t="n">
-        <v>37.04181864195976</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="F27" t="n">
-        <v>37.04181864195976</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="G27" t="n">
         <v>5.162919622288307</v>
@@ -6324,31 +6324,31 @@
         <v>258.1459811144153</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.6069558498502</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="R27" t="n">
-        <v>232.6069558498502</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="S27" t="n">
-        <v>167.4185767805534</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="T27" t="n">
-        <v>167.4185767805534</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="U27" t="n">
-        <v>167.4185767805534</v>
+        <v>192.9576020451185</v>
       </c>
       <c r="V27" t="n">
-        <v>167.4185767805534</v>
+        <v>192.9576020451185</v>
       </c>
       <c r="W27" t="n">
-        <v>167.4185767805534</v>
+        <v>127.7692229758217</v>
       </c>
       <c r="X27" t="n">
-        <v>167.4185767805534</v>
+        <v>62.5808439065249</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.2301977112566</v>
+        <v>62.5808439065249</v>
       </c>
     </row>
     <row r="28">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>94.01487355470337</v>
+        <v>224.391631693297</v>
       </c>
       <c r="C29" t="n">
-        <v>94.01487355470337</v>
+        <v>200.7280568301788</v>
       </c>
       <c r="D29" t="n">
-        <v>94.01487355470337</v>
+        <v>200.7280568301788</v>
       </c>
       <c r="E29" t="n">
-        <v>94.01487355470337</v>
+        <v>135.5396777608819</v>
       </c>
       <c r="F29" t="n">
-        <v>28.82649448540656</v>
+        <v>70.35129869158513</v>
       </c>
       <c r="G29" t="n">
         <v>5.162919622288307</v>
@@ -6485,28 +6485,28 @@
         <v>224.391631693297</v>
       </c>
       <c r="R29" t="n">
-        <v>159.2032526240002</v>
+        <v>224.391631693297</v>
       </c>
       <c r="S29" t="n">
-        <v>159.2032526240002</v>
+        <v>224.391631693297</v>
       </c>
       <c r="T29" t="n">
-        <v>159.2032526240002</v>
+        <v>224.391631693297</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2032526240002</v>
+        <v>224.391631693297</v>
       </c>
       <c r="V29" t="n">
-        <v>159.2032526240002</v>
+        <v>224.391631693297</v>
       </c>
       <c r="W29" t="n">
-        <v>159.2032526240002</v>
+        <v>224.391631693297</v>
       </c>
       <c r="X29" t="n">
-        <v>159.2032526240002</v>
+        <v>224.391631693297</v>
       </c>
       <c r="Y29" t="n">
-        <v>94.01487355470337</v>
+        <v>224.391631693297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>62.5808439065249</v>
+        <v>70.35129869158513</v>
       </c>
       <c r="C30" t="n">
-        <v>62.5808439065249</v>
+        <v>70.35129869158513</v>
       </c>
       <c r="D30" t="n">
-        <v>5.162919622288307</v>
+        <v>70.35129869158513</v>
       </c>
       <c r="E30" t="n">
         <v>5.162919622288307</v>
@@ -6570,22 +6570,22 @@
         <v>258.1459811144153</v>
       </c>
       <c r="T30" t="n">
-        <v>258.1459811144153</v>
+        <v>200.7280568301788</v>
       </c>
       <c r="U30" t="n">
-        <v>258.1459811144153</v>
+        <v>135.5396777608819</v>
       </c>
       <c r="V30" t="n">
-        <v>258.1459811144153</v>
+        <v>70.35129869158513</v>
       </c>
       <c r="W30" t="n">
-        <v>192.9576020451185</v>
+        <v>70.35129869158513</v>
       </c>
       <c r="X30" t="n">
-        <v>192.9576020451185</v>
+        <v>70.35129869158513</v>
       </c>
       <c r="Y30" t="n">
-        <v>127.7692229758217</v>
+        <v>70.35129869158513</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="C31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="D31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="E31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="F31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="G31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="H31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="I31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="J31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="K31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="L31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="M31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="N31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="O31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="P31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="Q31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="R31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="S31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="T31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="U31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="W31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="X31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="Y31" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288307</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>135.5396777608819</v>
+        <v>159.2032526240002</v>
       </c>
       <c r="C32" t="n">
-        <v>135.5396777608819</v>
+        <v>142.0726600500701</v>
       </c>
       <c r="D32" t="n">
-        <v>135.5396777608819</v>
+        <v>142.0726600500701</v>
       </c>
       <c r="E32" t="n">
-        <v>135.5396777608819</v>
+        <v>76.88428098077327</v>
       </c>
       <c r="F32" t="n">
-        <v>70.35129869158513</v>
+        <v>11.69590191147646</v>
       </c>
       <c r="G32" t="n">
-        <v>5.162919622288307</v>
+        <v>11.69590191147646</v>
       </c>
       <c r="H32" t="n">
-        <v>5.162919622288307</v>
+        <v>11.69590191147646</v>
       </c>
       <c r="I32" t="n">
-        <v>5.162919622288307</v>
+        <v>11.69590191147646</v>
       </c>
       <c r="J32" t="n">
-        <v>5.162919622288307</v>
+        <v>11.69590191147646</v>
       </c>
       <c r="K32" t="n">
         <v>5.162919622288307</v>
@@ -6722,28 +6722,28 @@
         <v>224.391631693297</v>
       </c>
       <c r="R32" t="n">
-        <v>200.7280568301788</v>
+        <v>224.391631693297</v>
       </c>
       <c r="S32" t="n">
-        <v>200.7280568301788</v>
+        <v>224.391631693297</v>
       </c>
       <c r="T32" t="n">
-        <v>200.7280568301788</v>
+        <v>224.391631693297</v>
       </c>
       <c r="U32" t="n">
-        <v>200.7280568301788</v>
+        <v>224.391631693297</v>
       </c>
       <c r="V32" t="n">
-        <v>200.7280568301788</v>
+        <v>224.391631693297</v>
       </c>
       <c r="W32" t="n">
-        <v>200.7280568301788</v>
+        <v>224.391631693297</v>
       </c>
       <c r="X32" t="n">
-        <v>200.7280568301788</v>
+        <v>224.391631693297</v>
       </c>
       <c r="Y32" t="n">
-        <v>135.5396777608819</v>
+        <v>159.2032526240002</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>200.7280568301788</v>
+        <v>135.5396777608819</v>
       </c>
       <c r="C33" t="n">
-        <v>200.7280568301788</v>
+        <v>70.35129869158513</v>
       </c>
       <c r="D33" t="n">
-        <v>200.7280568301788</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="E33" t="n">
-        <v>135.5396777608819</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="F33" t="n">
-        <v>70.35129869158513</v>
+        <v>5.162919622288307</v>
       </c>
       <c r="G33" t="n">
         <v>5.162919622288307</v>
@@ -6816,13 +6816,13 @@
         <v>258.1459811144153</v>
       </c>
       <c r="W33" t="n">
-        <v>200.7280568301788</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="X33" t="n">
-        <v>200.7280568301788</v>
+        <v>258.1459811144153</v>
       </c>
       <c r="Y33" t="n">
-        <v>200.7280568301788</v>
+        <v>192.9576020451185</v>
       </c>
     </row>
     <row r="34">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>146.9407414261006</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="C35" t="n">
-        <v>146.9407414261006</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="D35" t="n">
-        <v>146.9407414261006</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="E35" t="n">
-        <v>146.9407414261006</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="F35" t="n">
-        <v>93.55004486392289</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="G35" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="H35" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="I35" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="J35" t="n">
         <v>4.228543167724476</v>
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.61923972990221</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="C36" t="n">
         <v>4.228543167724476</v>
@@ -7023,7 +7023,7 @@
         <v>63.73767144190116</v>
       </c>
       <c r="M36" t="n">
-        <v>116.0658931424915</v>
+        <v>69.53902651042196</v>
       </c>
       <c r="N36" t="n">
         <v>121.8672482110124</v>
@@ -7041,25 +7041,25 @@
         <v>211.4271583862238</v>
       </c>
       <c r="S36" t="n">
-        <v>211.4271583862238</v>
+        <v>158.0364618240461</v>
       </c>
       <c r="T36" t="n">
-        <v>164.4006328542577</v>
+        <v>158.0364618240461</v>
       </c>
       <c r="U36" t="n">
-        <v>111.0099362920799</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="V36" t="n">
-        <v>111.0099362920799</v>
+        <v>51.25506869969061</v>
       </c>
       <c r="W36" t="n">
-        <v>111.0099362920799</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="X36" t="n">
-        <v>111.0099362920799</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="Y36" t="n">
-        <v>57.61923972990221</v>
+        <v>4.228543167724476</v>
       </c>
     </row>
     <row r="37">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>146.9407414261006</v>
+      </c>
+      <c r="C38" t="n">
+        <v>93.55004486392289</v>
+      </c>
+      <c r="D38" t="n">
         <v>40.15934830174515</v>
-      </c>
-      <c r="C38" t="n">
-        <v>4.228543167724476</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.228543167724476</v>
       </c>
       <c r="E38" t="n">
         <v>4.228543167724476</v>
@@ -7208,16 +7208,16 @@
         <v>146.9407414261006</v>
       </c>
       <c r="V38" t="n">
-        <v>93.55004486392289</v>
+        <v>146.9407414261006</v>
       </c>
       <c r="W38" t="n">
-        <v>93.55004486392289</v>
+        <v>146.9407414261006</v>
       </c>
       <c r="X38" t="n">
-        <v>93.55004486392289</v>
+        <v>146.9407414261006</v>
       </c>
       <c r="Y38" t="n">
-        <v>40.15934830174515</v>
+        <v>146.9407414261006</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104.6457652618683</v>
+        <v>158.0364618240461</v>
       </c>
       <c r="C39" t="n">
-        <v>104.6457652618683</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="D39" t="n">
-        <v>104.6457652618683</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="E39" t="n">
-        <v>51.25506869969061</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="F39" t="n">
         <v>4.228543167724476</v>
@@ -7290,13 +7290,13 @@
         <v>158.0364618240461</v>
       </c>
       <c r="W39" t="n">
-        <v>104.6457652618683</v>
+        <v>158.0364618240461</v>
       </c>
       <c r="X39" t="n">
-        <v>104.6457652618683</v>
+        <v>158.0364618240461</v>
       </c>
       <c r="Y39" t="n">
-        <v>104.6457652618683</v>
+        <v>158.0364618240461</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="C40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="D40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="E40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="F40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="G40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="H40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="I40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="J40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="K40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="L40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="M40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="N40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="O40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="P40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="R40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="S40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="T40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="U40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="V40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="W40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="X40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="C41" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="D41" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="E41" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="F41" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="G41" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="H41" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="I41" t="n">
         <v>4.228543167724476</v>
@@ -7436,25 +7436,25 @@
         <v>200.3314379882784</v>
       </c>
       <c r="S41" t="n">
-        <v>146.9407414261006</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="T41" t="n">
-        <v>93.55004486392289</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="U41" t="n">
-        <v>40.15934830174515</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="V41" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="W41" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="X41" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="Y41" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57.61923972990221</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="C42" t="n">
         <v>4.228543167724476</v>
@@ -7512,28 +7512,28 @@
         <v>211.4271583862238</v>
       </c>
       <c r="R42" t="n">
-        <v>211.4271583862238</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="S42" t="n">
-        <v>211.4271583862238</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="T42" t="n">
-        <v>211.4271583862238</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="U42" t="n">
-        <v>211.4271583862238</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="V42" t="n">
-        <v>164.4006328542577</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="W42" t="n">
-        <v>111.0099362920799</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="X42" t="n">
-        <v>57.61923972990221</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="Y42" t="n">
-        <v>57.61923972990221</v>
+        <v>4.228543167724476</v>
       </c>
     </row>
     <row r="43">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>86.4801948232781</v>
+        <v>44.88718076821937</v>
       </c>
       <c r="C44" t="n">
-        <v>86.4801948232781</v>
+        <v>44.88718076821937</v>
       </c>
       <c r="D44" t="n">
-        <v>86.4801948232781</v>
+        <v>44.88718076821937</v>
       </c>
       <c r="E44" t="n">
         <v>44.88718076821937</v>
@@ -7667,31 +7667,31 @@
         <v>164.7083356580325</v>
       </c>
       <c r="Q44" t="n">
-        <v>164.7083356580325</v>
+        <v>123.3420816923913</v>
       </c>
       <c r="R44" t="n">
-        <v>164.7083356580325</v>
+        <v>81.74906763733259</v>
       </c>
       <c r="S44" t="n">
-        <v>128.0732088783368</v>
+        <v>81.74906763733259</v>
       </c>
       <c r="T44" t="n">
-        <v>128.0732088783368</v>
+        <v>81.74906763733259</v>
       </c>
       <c r="U44" t="n">
-        <v>128.0732088783368</v>
+        <v>44.88718076821937</v>
       </c>
       <c r="V44" t="n">
-        <v>128.0732088783368</v>
+        <v>44.88718076821937</v>
       </c>
       <c r="W44" t="n">
-        <v>128.0732088783368</v>
+        <v>44.88718076821937</v>
       </c>
       <c r="X44" t="n">
-        <v>128.0732088783368</v>
+        <v>44.88718076821937</v>
       </c>
       <c r="Y44" t="n">
-        <v>86.4801948232781</v>
+        <v>44.88718076821937</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>44.88718076821937</v>
       </c>
       <c r="G45" t="n">
-        <v>44.88718076821937</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="H45" t="n">
-        <v>44.88718076821937</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="I45" t="n">
         <v>3.294166713160651</v>
@@ -7728,19 +7728,19 @@
         <v>3.294166713160651</v>
       </c>
       <c r="K45" t="n">
-        <v>10.47507328674694</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="L45" t="n">
-        <v>45.94602103268537</v>
+        <v>44.0594797885237</v>
       </c>
       <c r="M45" t="n">
-        <v>45.94602103268537</v>
+        <v>84.82479286388674</v>
       </c>
       <c r="N45" t="n">
-        <v>86.71133410804842</v>
+        <v>125.5901059392498</v>
       </c>
       <c r="O45" t="n">
-        <v>127.4766471834115</v>
+        <v>164.7083356580325</v>
       </c>
       <c r="P45" t="n">
         <v>164.7083356580325</v>
@@ -7752,16 +7752,16 @@
         <v>97.57629633840867</v>
       </c>
       <c r="S45" t="n">
-        <v>55.98328228334994</v>
+        <v>97.57629633840867</v>
       </c>
       <c r="T45" t="n">
-        <v>55.98328228334994</v>
+        <v>97.57629633840867</v>
       </c>
       <c r="U45" t="n">
-        <v>55.98328228334994</v>
+        <v>86.4801948232781</v>
       </c>
       <c r="V45" t="n">
-        <v>55.98328228334994</v>
+        <v>86.4801948232781</v>
       </c>
       <c r="W45" t="n">
         <v>44.88718076821937</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="C46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="D46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="E46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="F46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="G46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="I46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="J46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="K46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="L46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="M46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="N46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="O46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="P46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="R46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="S46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="T46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="U46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="V46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="W46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="X46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="Y46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
     </row>
   </sheetData>
@@ -23057,13 +23057,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P8" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q8" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R8" t="n">
         <v>133.1811664518765</v>
@@ -23206,10 +23206,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L10" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M10" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N10" t="n">
         <v>37.63776203285606</v>
@@ -23279,7 +23279,7 @@
         <v>145.7319664493916</v>
       </c>
       <c r="J11" t="n">
-        <v>38.5114503410384</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>6.467652466296272</v>
@@ -23303,25 +23303,25 @@
         <v>40.95259142598479</v>
       </c>
       <c r="R11" t="n">
-        <v>110.093793809193</v>
+        <v>57.23700421263702</v>
       </c>
       <c r="S11" t="n">
         <v>117.8946294969817</v>
       </c>
       <c r="T11" t="n">
-        <v>215.7444061178635</v>
+        <v>165.8275697796655</v>
       </c>
       <c r="U11" t="n">
-        <v>198.3545136880478</v>
+        <v>251.2113032846037</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>296.3841791208571</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>334.1596035957886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,19 +23334,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.2605583851403</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>119.8517093917598</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>104.788290858845</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>92.21242279682792</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.4449748422618</v>
@@ -23355,7 +23355,7 @@
         <v>103.5574170841747</v>
       </c>
       <c r="I12" t="n">
-        <v>68.58572552873486</v>
+        <v>15.7289359321789</v>
       </c>
       <c r="J12" t="n">
         <v>41.94508221245999</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>89.89106056329777</v>
+        <v>37.03427096674181</v>
       </c>
       <c r="S12" t="n">
-        <v>154.9931415897222</v>
+        <v>102.1363519931662</v>
       </c>
       <c r="T12" t="n">
-        <v>196.542972585383</v>
+        <v>175.270347320656</v>
       </c>
       <c r="U12" t="n">
         <v>225.8822674545966</v>
@@ -23510,7 +23510,7 @@
         <v>413.6233672247255</v>
       </c>
       <c r="H14" t="n">
-        <v>286.7044540464298</v>
+        <v>322.2759511291103</v>
       </c>
       <c r="I14" t="n">
         <v>145.7319664493916</v>
@@ -23549,7 +23549,7 @@
         <v>162.8876165213076</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2113032846037</v>
+        <v>215.6398062019232</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23577,7 +23577,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>94.5882759680828</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23586,13 +23586,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>83.58818524570583</v>
+        <v>136.4449748422618</v>
       </c>
       <c r="H15" t="n">
         <v>103.5574170841747</v>
       </c>
       <c r="I15" t="n">
-        <v>68.58572552873486</v>
+        <v>15.7289359321789</v>
       </c>
       <c r="J15" t="n">
         <v>41.94508221245999</v>
@@ -23619,22 +23619,22 @@
         <v>25.28363501191949</v>
       </c>
       <c r="R15" t="n">
-        <v>89.89106056329777</v>
+        <v>43.33480028665129</v>
       </c>
       <c r="S15" t="n">
-        <v>108.4368813130757</v>
+        <v>154.9931415897222</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6861829888271</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U15" t="n">
         <v>225.8822674545966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>179.9437975528693</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>198.8381935643636</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23738,22 +23738,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>329.0735804757059</v>
       </c>
       <c r="F17" t="n">
         <v>354.0192561451555</v>
       </c>
       <c r="G17" t="n">
-        <v>360.7665776281696</v>
+        <v>363.7065308865274</v>
       </c>
       <c r="H17" t="n">
-        <v>286.7044540464298</v>
+        <v>322.2759511291103</v>
       </c>
       <c r="I17" t="n">
         <v>145.7319664493916</v>
       </c>
       <c r="J17" t="n">
-        <v>38.5114503410384</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>6.467652466296272</v>
@@ -23777,7 +23777,7 @@
         <v>40.95259142598479</v>
       </c>
       <c r="R17" t="n">
-        <v>57.23700421263702</v>
+        <v>110.093793809193</v>
       </c>
       <c r="S17" t="n">
         <v>170.7514190935376</v>
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>98.51295211673741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>83.58818524570583</v>
+        <v>136.4449748422618</v>
       </c>
       <c r="H18" t="n">
-        <v>50.70062748761875</v>
+        <v>98.94623901998821</v>
       </c>
       <c r="I18" t="n">
         <v>15.7289359321789</v>
       </c>
       <c r="J18" t="n">
-        <v>41.94508221245999</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23856,10 @@
         <v>25.28363501191949</v>
       </c>
       <c r="R18" t="n">
-        <v>89.89106056329777</v>
+        <v>37.03427096674181</v>
       </c>
       <c r="S18" t="n">
-        <v>154.9931415897222</v>
+        <v>102.1363519931662</v>
       </c>
       <c r="T18" t="n">
         <v>196.542972585383</v>
@@ -24014,10 +24014,10 @@
         <v>40.95259142598479</v>
       </c>
       <c r="R20" t="n">
-        <v>110.093793809193</v>
+        <v>86.66685469470592</v>
       </c>
       <c r="S20" t="n">
-        <v>147.3244799790506</v>
+        <v>106.2149238149338</v>
       </c>
       <c r="T20" t="n">
         <v>151.2079108392597</v>
@@ -24026,7 +24026,7 @@
         <v>186.6748080059999</v>
       </c>
       <c r="V20" t="n">
-        <v>263.2157631915311</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24099,19 +24099,19 @@
         <v>154.9931415897222</v>
       </c>
       <c r="T21" t="n">
-        <v>132.0064773067792</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U21" t="n">
-        <v>161.3457721759928</v>
+        <v>169.0385224132024</v>
       </c>
       <c r="V21" t="n">
         <v>168.2640918708214</v>
       </c>
       <c r="W21" t="n">
-        <v>194.8512381195254</v>
+        <v>187.1584878823158</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>141.2364899248736</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24212,7 +24212,7 @@
         <v>331.2561025061959</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>317.3938747936579</v>
       </c>
       <c r="F23" t="n">
         <v>342.3395504631076</v>
@@ -24221,7 +24221,7 @@
         <v>349.0868719461216</v>
       </c>
       <c r="H23" t="n">
-        <v>257.7394558505065</v>
+        <v>322.2759511291103</v>
       </c>
       <c r="I23" t="n">
         <v>145.7319664493916</v>
@@ -24300,13 +24300,13 @@
         <v>136.4449748422618</v>
       </c>
       <c r="H24" t="n">
-        <v>103.5574170841747</v>
+        <v>39.02092180557086</v>
       </c>
       <c r="I24" t="n">
-        <v>68.58572552873486</v>
+        <v>53.68706269980062</v>
       </c>
       <c r="J24" t="n">
-        <v>41.94508221245999</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,19 +24330,19 @@
         <v>25.28363501191949</v>
       </c>
       <c r="R24" t="n">
-        <v>33.04731552190355</v>
+        <v>89.89106056329777</v>
       </c>
       <c r="S24" t="n">
-        <v>90.45664631111833</v>
+        <v>154.9931415897222</v>
       </c>
       <c r="T24" t="n">
         <v>132.0064773067792</v>
       </c>
       <c r="U24" t="n">
-        <v>161.3457721759928</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>168.2640918708214</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>318.1973463848767</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>341.8459526565205</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>317.3938747936579</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>349.0868719461216</v>
+        <v>413.6233672247255</v>
       </c>
       <c r="H26" t="n">
         <v>322.2759511291103</v>
       </c>
       <c r="I26" t="n">
-        <v>81.19547117078773</v>
+        <v>145.7319664493916</v>
       </c>
       <c r="J26" t="n">
         <v>38.5114503410384</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>305.1946053998652</v>
       </c>
       <c r="Y26" t="n">
-        <v>362.8109995415665</v>
+        <v>321.7014433774498</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>101.9966883712635</v>
+        <v>109.6894386084731</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>104.884864812787</v>
+        <v>136.4449748422618</v>
       </c>
       <c r="H27" t="n">
         <v>103.5574170841747</v>
@@ -24564,31 +24564,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>25.28363501191949</v>
       </c>
       <c r="R27" t="n">
         <v>89.89106056329777</v>
       </c>
       <c r="S27" t="n">
-        <v>90.45664631111833</v>
+        <v>154.9931415897222</v>
       </c>
       <c r="T27" t="n">
         <v>196.542972585383</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8822674545966</v>
+        <v>161.3457721759928</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>187.1584878823158</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>141.2364899248736</v>
       </c>
       <c r="Y27" t="n">
-        <v>141.1462004987005</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24680,19 +24680,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>341.8459526565205</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>317.3938747936579</v>
       </c>
       <c r="F29" t="n">
         <v>342.3395504631076</v>
       </c>
       <c r="G29" t="n">
-        <v>390.1964281102384</v>
+        <v>349.0868719461216</v>
       </c>
       <c r="H29" t="n">
         <v>322.2759511291103</v>
@@ -24725,7 +24725,7 @@
         <v>40.95259142598479</v>
       </c>
       <c r="R29" t="n">
-        <v>45.55729853058914</v>
+        <v>110.093793809193</v>
       </c>
       <c r="S29" t="n">
         <v>170.7514190935376</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>321.7014433774498</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>101.9966883712635</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>90.60132052324452</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>93.10858517679711</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24810,22 +24810,22 @@
         <v>154.9931415897222</v>
       </c>
       <c r="T30" t="n">
-        <v>196.542972585383</v>
+        <v>139.6992275439888</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8822674545966</v>
+        <v>161.3457721759928</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>168.2640918708214</v>
       </c>
       <c r="W30" t="n">
-        <v>187.1584878823158</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>141.1462004987005</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24917,19 +24917,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>348.3136051228167</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>317.3938747936579</v>
       </c>
       <c r="F32" t="n">
         <v>342.3395504631076</v>
       </c>
       <c r="G32" t="n">
-        <v>349.0868719461216</v>
+        <v>413.6233672247255</v>
       </c>
       <c r="H32" t="n">
         <v>322.2759511291103</v>
@@ -24941,7 +24941,7 @@
         <v>38.5114503410384</v>
       </c>
       <c r="K32" t="n">
-        <v>6.467652466296272</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>40.95259142598479</v>
       </c>
       <c r="R32" t="n">
-        <v>86.66685469470592</v>
+        <v>110.093793809193</v>
       </c>
       <c r="S32" t="n">
         <v>170.7514190935376</v>
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>109.6894386084731</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>108.1720037097119</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>82.90857028603492</v>
       </c>
       <c r="E33" t="n">
-        <v>93.10858517679711</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>80.53271711478004</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>71.90847956365795</v>
+        <v>136.4449748422618</v>
       </c>
       <c r="H33" t="n">
         <v>103.5574170841747</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>194.8512381195254</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>141.1462004987005</v>
       </c>
     </row>
     <row r="34">
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>347.1623445808001</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>301.826252024127</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>329.0735804757059</v>
       </c>
       <c r="F35" t="n">
-        <v>354.0192561451555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>360.7665776281696</v>
+        <v>413.6233672247255</v>
       </c>
       <c r="H35" t="n">
         <v>322.2759511291103</v>
@@ -25175,7 +25175,7 @@
         <v>145.7319664493916</v>
       </c>
       <c r="J35" t="n">
-        <v>2.939953258357924</v>
+        <v>38.5114503410384</v>
       </c>
       <c r="K35" t="n">
         <v>6.467652466296272</v>
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>119.8517093917598</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25281,25 +25281,25 @@
         <v>89.89106056329777</v>
       </c>
       <c r="S36" t="n">
-        <v>154.9931415897222</v>
+        <v>102.1363519931662</v>
       </c>
       <c r="T36" t="n">
-        <v>149.9867123087366</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U36" t="n">
         <v>173.0254778580407</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>179.9437975528693</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>205.1387228842731</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>152.8259061807484</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25391,13 +25391,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7013946883271</v>
+        <v>312.4161021744516</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>301.826252024127</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>346.3588729895813</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25448,7 +25448,7 @@
         <v>251.2113032846037</v>
       </c>
       <c r="V38" t="n">
-        <v>274.8954688735789</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>333.3811490594976</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,16 +25470,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>126.1522387116693</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>94.5882759680828</v>
       </c>
       <c r="E39" t="n">
         <v>104.788290858845</v>
       </c>
       <c r="F39" t="n">
-        <v>98.51295211673741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.4449748422618</v>
@@ -25530,7 +25530,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>198.8381935643636</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25646,7 +25646,7 @@
         <v>322.2759511291103</v>
       </c>
       <c r="I41" t="n">
-        <v>110.1604693667111</v>
+        <v>145.7319664493916</v>
       </c>
       <c r="J41" t="n">
         <v>38.5114503410384</v>
@@ -25676,7 +25676,7 @@
         <v>110.093793809193</v>
       </c>
       <c r="S41" t="n">
-        <v>117.8946294969817</v>
+        <v>135.1799220108572</v>
       </c>
       <c r="T41" t="n">
         <v>162.8876165213076</v>
@@ -25685,7 +25685,7 @@
         <v>198.3545136880478</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>274.8954688735789</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>119.8517093917598</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25752,7 +25752,7 @@
         <v>25.28363501191949</v>
       </c>
       <c r="R42" t="n">
-        <v>89.89106056329777</v>
+        <v>43.33480028665129</v>
       </c>
       <c r="S42" t="n">
         <v>154.9931415897222</v>
@@ -25761,13 +25761,13 @@
         <v>196.542972585383</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8822674545966</v>
+        <v>173.0254778580407</v>
       </c>
       <c r="V42" t="n">
-        <v>186.2443268727788</v>
+        <v>179.9437975528693</v>
       </c>
       <c r="W42" t="n">
-        <v>198.8381935643636</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>152.9161956069215</v>
@@ -25871,7 +25871,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>340.7532861577537</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25907,19 +25907,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>40.95259142598479</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.093793809193</v>
+        <v>68.91670989468484</v>
       </c>
       <c r="S44" t="n">
-        <v>134.4826435816389</v>
+        <v>170.7514190935376</v>
       </c>
       <c r="T44" t="n">
         <v>215.7444061178635</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2113032846037</v>
+        <v>214.7180352841817</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>345.0608547415454</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25956,13 +25956,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.4449748422618</v>
+        <v>95.26789092775365</v>
       </c>
       <c r="H45" t="n">
         <v>103.5574170841747</v>
       </c>
       <c r="I45" t="n">
-        <v>27.40864161422672</v>
+        <v>68.58572552873486</v>
       </c>
       <c r="J45" t="n">
         <v>41.94508221245999</v>
@@ -25992,19 +25992,19 @@
         <v>48.71397664878964</v>
       </c>
       <c r="S45" t="n">
-        <v>113.816057675214</v>
+        <v>154.9931415897222</v>
       </c>
       <c r="T45" t="n">
         <v>196.542972585383</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8822674545966</v>
+        <v>214.8971269546174</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>240.7098426609404</v>
+        <v>210.5178992464115</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>344429.212181854</v>
+        <v>344429.2121818541</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349671.1689289954</v>
+        <v>349671.1689289951</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>349671.1689289953</v>
+        <v>349671.1689289954</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>344429.2121818541</v>
+        <v>344429.212181854</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>344429.212181854</v>
+        <v>344429.2121818539</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>337911.5706028894</v>
+        <v>337911.5706028893</v>
       </c>
     </row>
   </sheetData>
@@ -26326,7 +26326,7 @@
         <v>86107.3030454634</v>
       </c>
       <c r="G2" t="n">
-        <v>86107.3030454634</v>
+        <v>86107.30304546341</v>
       </c>
       <c r="H2" t="n">
         <v>87417.79223224877</v>
@@ -26335,7 +26335,7 @@
         <v>87417.79223224877</v>
       </c>
       <c r="J2" t="n">
-        <v>87417.79223224876</v>
+        <v>87417.79223224877</v>
       </c>
       <c r="K2" t="n">
         <v>87417.79223224877</v>
@@ -26344,16 +26344,16 @@
         <v>87417.79223224877</v>
       </c>
       <c r="M2" t="n">
-        <v>86107.30304546341</v>
+        <v>86107.3030454634</v>
       </c>
       <c r="N2" t="n">
         <v>86107.30304546341</v>
       </c>
       <c r="O2" t="n">
-        <v>86107.30304546341</v>
+        <v>86107.3030454634</v>
       </c>
       <c r="P2" t="n">
-        <v>84477.89265072221</v>
+        <v>84477.89265072223</v>
       </c>
     </row>
     <row r="3">
@@ -26427,7 +26427,7 @@
         <v>36.9621389590613</v>
       </c>
       <c r="F4" t="n">
-        <v>36.96213895906129</v>
+        <v>36.9621389590613</v>
       </c>
       <c r="G4" t="n">
         <v>36.9621389590613</v>
@@ -26439,25 +26439,25 @@
         <v>42.69255649714921</v>
       </c>
       <c r="J4" t="n">
-        <v>42.6925564971492</v>
+        <v>42.69255649714921</v>
       </c>
       <c r="K4" t="n">
         <v>42.69255649714921</v>
       </c>
       <c r="L4" t="n">
-        <v>42.6925564971492</v>
+        <v>42.69255649714921</v>
       </c>
       <c r="M4" t="n">
+        <v>36.96213895906129</v>
+      </c>
+      <c r="N4" t="n">
         <v>36.9621389590613</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36.96213895906129</v>
       </c>
       <c r="O4" t="n">
         <v>36.9621389590613</v>
       </c>
       <c r="P4" t="n">
-        <v>29.83716456253691</v>
+        <v>29.83716456253692</v>
       </c>
     </row>
     <row r="5">
@@ -26528,13 +26528,13 @@
         <v>27052.08693762036</v>
       </c>
       <c r="E6" t="n">
-        <v>-15483.25695164153</v>
+        <v>-15483.25695164152</v>
       </c>
       <c r="F6" t="n">
         <v>73749.84285671533</v>
       </c>
       <c r="G6" t="n">
-        <v>73749.84285671533</v>
+        <v>73749.84285671535</v>
       </c>
       <c r="H6" t="n">
         <v>71193.18581012645</v>
@@ -26543,7 +26543,7 @@
         <v>74344.4755204941</v>
       </c>
       <c r="J6" t="n">
-        <v>74344.47552049409</v>
+        <v>74344.4755204941</v>
       </c>
       <c r="K6" t="n">
         <v>74344.4755204941</v>
@@ -26552,16 +26552,16 @@
         <v>74344.4755204941</v>
       </c>
       <c r="M6" t="n">
-        <v>63488.34883688428</v>
+        <v>63488.34883688427</v>
       </c>
       <c r="N6" t="n">
         <v>73749.84285671535</v>
       </c>
       <c r="O6" t="n">
-        <v>73749.84285671535</v>
+        <v>73749.84285671533</v>
       </c>
       <c r="P6" t="n">
-        <v>72837.68354183917</v>
+        <v>72837.6835418392</v>
       </c>
     </row>
   </sheetData>
@@ -31519,7 +31519,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I8" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J8" t="n">
         <v>111.3401072796808</v>
@@ -31546,7 +31546,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R8" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S8" t="n">
         <v>29.89337332963048</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H9" t="n">
         <v>6.778799411242828</v>
@@ -31625,7 +31625,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R9" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S9" t="n">
         <v>13.03733674233122</v>
@@ -31674,7 +31674,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H10" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I10" t="n">
         <v>17.69607700863206</v>
@@ -31686,10 +31686,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L10" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M10" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N10" t="n">
         <v>90.04778243237713</v>
@@ -31841,13 +31841,13 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>145.0948799577795</v>
       </c>
       <c r="L12" t="n">
-        <v>191.4111693764301</v>
+        <v>182.0221005305225</v>
       </c>
       <c r="M12" t="n">
-        <v>155.2474295201063</v>
+        <v>194.9908235185743</v>
       </c>
       <c r="N12" t="n">
         <v>184.1985016798893</v>
@@ -31856,7 +31856,7 @@
         <v>195.4530340410004</v>
       </c>
       <c r="P12" t="n">
-        <v>171.5821735503111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>114.698139074102</v>
@@ -32081,7 +32081,7 @@
         <v>145.0948799577795</v>
       </c>
       <c r="L15" t="n">
-        <v>144.4143343945417</v>
+        <v>191.4111693764301</v>
       </c>
       <c r="M15" t="n">
         <v>194.9908235185743</v>
@@ -32090,7 +32090,7 @@
         <v>184.1985016798893</v>
       </c>
       <c r="O15" t="n">
-        <v>195.4530340410004</v>
+        <v>148.4561990591119</v>
       </c>
       <c r="P15" t="n">
         <v>171.5821735503111</v>
@@ -32552,13 +32552,13 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0948799577795</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>195.0979719235645</v>
+        <v>162.8755737597253</v>
       </c>
       <c r="M21" t="n">
-        <v>167.1946900533625</v>
+        <v>206.6705292006222</v>
       </c>
       <c r="N21" t="n">
         <v>195.8782073619371</v>
@@ -32795,10 +32795,10 @@
         <v>195.0979719235645</v>
       </c>
       <c r="M24" t="n">
-        <v>206.6705292006222</v>
+        <v>167.1946900533625</v>
       </c>
       <c r="N24" t="n">
-        <v>156.4023682146774</v>
+        <v>195.8782073619371</v>
       </c>
       <c r="O24" t="n">
         <v>207.1327397230483</v>
@@ -33743,10 +33743,10 @@
         <v>191.4111693764301</v>
       </c>
       <c r="M36" t="n">
-        <v>194.9908235185743</v>
+        <v>147.9939885366858</v>
       </c>
       <c r="N36" t="n">
-        <v>137.2016666980008</v>
+        <v>184.1985016798893</v>
       </c>
       <c r="O36" t="n">
         <v>195.4530340410004</v>
@@ -34448,22 +34448,22 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0948799577795</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>174.3836199272868</v>
+        <v>179.7314636943823</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>183.3111178365264</v>
       </c>
       <c r="N45" t="n">
         <v>172.5187959978414</v>
       </c>
       <c r="O45" t="n">
-        <v>183.7733283589526</v>
+        <v>182.1096077967503</v>
       </c>
       <c r="P45" t="n">
-        <v>171.5821735503111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>114.698139074102</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>7.253440983420489</v>
       </c>
       <c r="L12" t="n">
+        <v>43.46772075064834</v>
+      </c>
+      <c r="M12" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="M12" t="n">
-        <v>13.11339559808797</v>
       </c>
       <c r="N12" t="n">
         <v>52.85678959655596</v>
@@ -35504,7 +35504,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="P12" t="n">
-        <v>37.60776613598085</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>7.253440983420489</v>
       </c>
       <c r="L15" t="n">
-        <v>5.859954614667479</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="M15" t="n">
         <v>52.85678959655596</v>
@@ -35738,7 +35738,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="O15" t="n">
-        <v>52.85678959655596</v>
+        <v>5.859954614667495</v>
       </c>
       <c r="P15" t="n">
         <v>37.60776613598085</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>7.253440983420489</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>56.54359214369032</v>
+        <v>24.32119397985112</v>
       </c>
       <c r="M21" t="n">
-        <v>25.06065613134414</v>
+        <v>64.53649527860384</v>
       </c>
       <c r="N21" t="n">
         <v>64.53649527860384</v>
@@ -36443,10 +36443,10 @@
         <v>56.54359214369032</v>
       </c>
       <c r="M24" t="n">
+        <v>25.06065613134414</v>
+      </c>
+      <c r="N24" t="n">
         <v>64.53649527860384</v>
-      </c>
-      <c r="N24" t="n">
-        <v>25.06065613134413</v>
       </c>
       <c r="O24" t="n">
         <v>64.53649527860384</v>
@@ -37391,10 +37391,10 @@
         <v>52.85678959655596</v>
       </c>
       <c r="M36" t="n">
+        <v>5.859954614667481</v>
+      </c>
+      <c r="N36" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5.859954614667495</v>
       </c>
       <c r="O36" t="n">
         <v>52.85678959655596</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>7.253440983420489</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>35.82924014741256</v>
+        <v>41.17708391450813</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>41.17708391450813</v>
       </c>
       <c r="N45" t="n">
         <v>41.17708391450813</v>
       </c>
       <c r="O45" t="n">
-        <v>41.17708391450813</v>
+        <v>39.5133633523058</v>
       </c>
       <c r="P45" t="n">
-        <v>37.60776613598085</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
